--- a/PJTagebücher_Timetracker/Time Tracker Nils.xlsx
+++ b/PJTagebücher_Timetracker/Time Tracker Nils.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Datum</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>fixed some stuff, ListViews update on data change, added endgame screen</t>
+  </si>
+  <si>
+    <t>fixed saving of keys, code improvements</t>
   </si>
 </sst>
 </file>
@@ -158,7 +161,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:C27" totalsRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:C28" totalsRowCount="1">
   <tableColumns count="3">
     <tableColumn id="1" name="Datum" totalsRowLabel="Ergebnis" dataDxfId="0"/>
     <tableColumn id="2" name="Dauer [min]" totalsRowFunction="sum"/>
@@ -455,19 +458,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="73.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -478,7 +481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>42268</v>
       </c>
@@ -489,7 +492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>42270</v>
       </c>
@@ -500,7 +503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>42276</v>
       </c>
@@ -511,7 +514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>42276</v>
       </c>
@@ -522,7 +525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>42282</v>
       </c>
@@ -533,7 +536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>42295</v>
       </c>
@@ -544,7 +547,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>42296</v>
       </c>
@@ -555,7 +558,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>42297</v>
       </c>
@@ -566,7 +569,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>42297</v>
       </c>
@@ -577,7 +580,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>42299</v>
       </c>
@@ -588,7 +591,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>42306</v>
       </c>
@@ -599,7 +602,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>42307</v>
       </c>
@@ -610,7 +613,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>42308</v>
       </c>
@@ -621,7 +624,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>42309</v>
       </c>
@@ -632,7 +635,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>42310</v>
       </c>
@@ -643,7 +646,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>42311</v>
       </c>
@@ -654,7 +657,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>42314</v>
       </c>
@@ -665,7 +668,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>42315</v>
       </c>
@@ -676,7 +679,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>42318</v>
       </c>
@@ -687,7 +690,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>42319</v>
       </c>
@@ -698,7 +701,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>42319</v>
       </c>
@@ -709,7 +712,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>42320</v>
       </c>
@@ -720,7 +723,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>42321</v>
       </c>
@@ -731,7 +734,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>42322</v>
       </c>
@@ -742,7 +745,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>42323</v>
       </c>
@@ -753,19 +756,30 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>42336</v>
+      </c>
+      <c r="B27">
+        <v>90</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>12</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <f>SUBTOTAL(109,Tabelle1[Dauer '[min']])</f>
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <f>B27/60</f>
-        <v>55</v>
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <f>B28/60</f>
+        <v>56.5</v>
       </c>
     </row>
   </sheetData>
